--- a/ProductSecuritySheet.xlsx
+++ b/ProductSecuritySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiro\Documents\GitHub\Sharing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585BC05F-6F82-48AE-BF8D-A67FC7D48B00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2BE96D-EB4C-4976-95E7-65746DE8F3DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1065" windowWidth="19710" windowHeight="9825" firstSheet="1" activeTab="2" xr2:uid="{C2F9AFB6-AAB6-42C6-859C-AD9C2BD69A0E}"/>
+    <workbookView xWindow="540" yWindow="510" windowWidth="19710" windowHeight="9825" activeTab="1" xr2:uid="{C2F9AFB6-AAB6-42C6-859C-AD9C2BD69A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="OS・ミドルウェア情報一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="163">
   <si>
     <t>製品名</t>
     <rPh sb="0" eb="3">
@@ -937,6 +937,33 @@
   </si>
   <si>
     <t>APC PowerChute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fortinet Fortigate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firewall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無線AP</t>
+    <rPh sb="0" eb="2">
+      <t>ムセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://datacentersupport.lenovo.com/us/en/downloads/ds119229</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.apc.com/jp/ja/faqs/FA303661/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1131,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,6 +1272,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1774,11 +1804,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7791DFB-59E0-4E8A-BA10-AB0295A5B39C}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1787,16 +1817,15 @@
     <col min="2" max="2" width="37.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
@@ -1809,14 +1838,11 @@
       <c r="D4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1827,10 +1853,9 @@
         <v>35</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1841,10 +1866,9 @@
         <v>35</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1855,10 +1879,9 @@
         <v>35</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1869,12 +1892,11 @@
         <v>35</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1885,12 +1907,11 @@
         <v>35</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1901,12 +1922,11 @@
         <v>134</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1917,12 +1937,11 @@
         <v>133</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="34" t="s">
+      <c r="E11" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1933,12 +1952,11 @@
         <v>134</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1949,12 +1967,11 @@
         <v>132</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1963,10 +1980,9 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1975,10 +1991,9 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1987,53 +2002,68 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{EF36D44E-A372-4683-B337-2F1DC23E7143}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{8D9ED30C-8CC5-4016-A25A-48E931CB010E}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{B11B3885-9780-4D02-89DB-5CA570F0E419}"/>
-    <hyperlink ref="F10" r:id="rId4" display="https://dynabook.com/assistpc/download/hist/hist_upd_index.htm" xr:uid="{8FA3668B-6D92-4527-8C4C-32931CF780ED}"/>
-    <hyperlink ref="F11" r:id="rId5" xr:uid="{D280DD3E-AE2A-4E2C-9ED7-F9739D09C60A}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{EF36D44E-A372-4683-B337-2F1DC23E7143}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{8D9ED30C-8CC5-4016-A25A-48E931CB010E}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{B11B3885-9780-4D02-89DB-5CA570F0E419}"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://dynabook.com/assistpc/download/hist/hist_upd_index.htm" xr:uid="{8FA3668B-6D92-4527-8C4C-32931CF780ED}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{D280DD3E-AE2A-4E2C-9ED7-F9739D09C60A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -2044,9 +2074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308321B7-85F0-4CCF-8DEA-F48FA890E072}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2557,7 +2587,9 @@
       <c r="E24" s="18"/>
       <c r="F24" s="8"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="38" t="s">
+        <v>161</v>
+      </c>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -2576,7 +2608,9 @@
       <c r="E25" s="18"/>
       <c r="F25" s="8"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="38" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="15"/>
     </row>
   </sheetData>
@@ -2597,9 +2631,11 @@
     <hyperlink ref="H20" r:id="rId9" xr:uid="{BF8229FD-F677-4810-B990-3AA9DF66A5AE}"/>
     <hyperlink ref="H22" r:id="rId10" xr:uid="{46B8EAA5-1B8C-4CEA-AB8E-1728F2237A36}"/>
     <hyperlink ref="H23" r:id="rId11" xr:uid="{3028AF18-D65B-4DD8-81F7-4C648A1DFF29}"/>
+    <hyperlink ref="H24" r:id="rId12" xr:uid="{B2ACAC57-5D95-49D8-B258-D2D404BD84BF}"/>
+    <hyperlink ref="H25" r:id="rId13" xr:uid="{38D054A1-4665-4CAA-9901-DF5806DFC673}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
